--- a/Playlist.xlsx
+++ b/Playlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabul\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039F445B-D307-4C33-9B14-CFC31BB9DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D69F0-52C9-44DC-908B-AEAC865CB6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{47B83CC7-980A-49C0-9BC3-3CA4C88CBB66}"/>
   </bookViews>
@@ -3590,7 +3590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-59BE-40F3-9DE2-903884FE6B4A}"/>
+              <c16:uniqueId val="{00000038-59BE-40F3-9DE2-903884FE6B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3674,7 +3674,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-59BE-40F3-9DE2-903884FE6B4A}"/>
+              <c16:uniqueId val="{00000039-59BE-40F3-9DE2-903884FE6B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3760,7 +3760,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000034-59BE-40F3-9DE2-903884FE6B4A}"/>
+              <c16:uniqueId val="{0000003E-59BE-40F3-9DE2-903884FE6B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3867,7 +3867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-59BE-40F3-9DE2-903884FE6B4A}"/>
+              <c16:uniqueId val="{0000003F-59BE-40F3-9DE2-903884FE6B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3953,7 +3953,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000036-59BE-40F3-9DE2-903884FE6B4A}"/>
+              <c16:uniqueId val="{00000040-59BE-40F3-9DE2-903884FE6B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4039,7 +4039,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000037-59BE-40F3-9DE2-903884FE6B4A}"/>
+              <c16:uniqueId val="{00000041-59BE-40F3-9DE2-903884FE6B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10360,15 +10360,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10404,7 +10404,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15859125" y="47623"/>
+              <a:off x="15868650" y="133348"/>
               <a:ext cx="1828800" cy="3800477"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10438,15 +10438,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:colOff>1819275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10482,7 +10482,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14001750" y="38100"/>
+              <a:off x="14011275" y="85725"/>
               <a:ext cx="1828800" cy="1038225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15005,7 +15005,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Months (Date)" xr10:uid="{5975FDB0-F716-4C5D-8456-7F95F7D42A9F}" cache="Slicer_Months__Date" caption="Months" rowHeight="257175"/>
+  <slicer name="Months (Date)" xr10:uid="{5975FDB0-F716-4C5D-8456-7F95F7D42A9F}" cache="Slicer_Months__Date" caption="Months" startItem="2" rowHeight="257175"/>
   <slicer name="Years (Date)" xr10:uid="{6E00D894-34DC-4DDA-905D-BB2D8EAFB492}" cache="Slicer_Years__Date" caption="Years" rowHeight="257175"/>
   <slicer name="Artist" xr10:uid="{C24926F2-677D-4357-99F4-20B9A7F36BC3}" cache="Slicer_Artist" caption="Artist" style="SlicerStyleLight2" rowHeight="257175"/>
 </slicers>
@@ -19648,7 +19648,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19673,7 +19673,7 @@
   <dimension ref="B12:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
